--- a/WakilRecouvrement/WakilRecouvrement.Web/Uploads/Lot 11.xlsx
+++ b/WakilRecouvrement/WakilRecouvrement.Web/Uploads/Lot 11.xlsx
@@ -10207,7 +10207,7 @@
   <dimension ref="A1:K1288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
